--- a/TableS2.xlsx
+++ b/TableS2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="94">
   <si>
     <t xml:space="preserve">ARTEM 
 &gt;= 12 residues</t>
@@ -54,6 +54,9 @@
     <t xml:space="preserve">F-score</t>
   </si>
   <si>
+    <t xml:space="preserve">python ARTEM/artem.py q=refmotifs/1ffk_0_kt7.cif qres=":_77_82 :_92_94 :_97_100" r=8t2s sizemin=12</t>
+  </si>
+  <si>
     <t xml:space="preserve">3IGI</t>
   </si>
   <si>
@@ -144,6 +147,9 @@
     <t xml:space="preserve">1.B.C.151.=1.0.G.92.,1.B.A.152.=1.0.C.93.,1.B.U.153.=1.0.G.94.,1.B.A.156.=1.0.G.97.,1.B.A.157.=1.0.A.98.,1.B.G.158.=1.0.A.99.,1.B.G.159.=1.0.C.100.,1.B.U.229.=1.0.G.77.,1.B.A.230.=1.0.G.79.,1.B.A.232.=1.0.A.80.,1.B.U.233.=1.0.G.81.,1.B.G.234.=1.0.C.82</t>
   </si>
   <si>
+    <t xml:space="preserve">python ARTEM/artem.py q=refmotifs/1ffk_0_kt7.cif qres=":_77_82 :_92_94 :_97_100" r=8t2s sizemin=11</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.A.G.155.=1.0.C.82.</t>
   </si>
   <si>
@@ -258,6 +264,9 @@
     <t xml:space="preserve">1.B.C.151.=1.0.G.92.,1.B.A.152.=1.0.C.93.,1.B.U.153.=1.0.G.94.,1.B.A.157.=1.0.A.98.,1.B.G.158.=1.0.A.99.,1.B.G.159.=1.0.C.100.,1.B.U.229.=1.0.G.77.,1.B.A.230.=1.0.G.79.,1.B.A.232.=1.0.A.80.,1.B.U.233.=1.0.G.81.,1.B.G.234.=1.0.C.82.</t>
   </si>
   <si>
+    <t xml:space="preserve">x3dna-dssr-2 -i=7UIN.cif1 --format=mmcif --idstr=long --u-turn --more --non-pair --po4 -o=7UIN.out1</t>
+  </si>
+  <si>
     <t xml:space="preserve">   1 Normal k-turn; iloop#13; between stems [#24,#25]; bending-angle=55</t>
   </si>
   <si>
@@ -280,6 +289,24 @@
   </si>
   <si>
     <t xml:space="preserve">      strand2 nts=7; UAGUAGU 1..B.U.338.,1..B.A.339.,1..B.G.340.,1..B.U.341.,1..B.A.342.,1..B.G.343.,1..B.U.344.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Normal k-turn [A-G]; iloop#8; between stems [#31,#30]; bending-angle=61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C#31[GC 1..B.G.446.,1..B.C.433.] [AG 1..B.A.451.,1..B.G.432.] NC#30[AU 1..B.A.452.,1..B.U.431.]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      strand1 nts=13; CGGGUAAAAGGUG 1..B.C.444.,1..B.G.445.,1..B.G.446.,1..B.G.447.,1..B.U.448.,1..B.A.449.,1..B.A.450.,1..B.A.451.,1..B.A.452.,1..B.G.453.,1..B.G.454.,1..B.U.455.,1..B.G.456.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      strand2 nts=9; CAUCUGCCG 1..B.C.427.,1..B.A.428.,1..B.U.429.,1..B.C.430.,1..B.U.431.,1..B.G.432.,1..B.C.433.,1..B.C.434.,1..B.G.435.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2 Normal k-turn; iloop#13; between stems [#23,#24]; bending-angle=58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      C#23[UG 1..B.U.344.,1..B.G.371.] [GA 1..B.G.348.,1..B.A.370.] NC#24[GU 1..B.G.351.,1..B.U.367.]</t>
   </si>
 </sst>
 </file>
@@ -289,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -317,6 +344,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -361,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +408,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -398,7 +434,7 @@
   <dimension ref="B5:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,6 +467,9 @@
       <c r="D6" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
@@ -442,16 +481,22 @@
       <c r="D7" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,6 +511,10 @@
         <f aca="false">ROUND(D6/(D6+D7),2)</f>
         <v>0.43</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">ROUND(E6/(E6+E7),2)</f>
+        <v>0.67</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
@@ -473,11 +522,15 @@
       </c>
       <c r="C10" s="1" t="n">
         <f aca="false">ROUND(C6/(C6+C8),2)</f>
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">ROUND(D6/(D6+D8),2)</f>
-        <v>1</v>
+        <v>0.86</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">ROUND(E6/(E6+E8),2)</f>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,11 +539,15 @@
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false">ROUND(2*C6/(2*C6+C7+C8),2)</f>
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">ROUND(2*D6/(2*D6+D7+D8),2)</f>
-        <v>0.6</v>
+        <v>0.57</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">ROUND(2*E6/(2*E6+E7+E8),2)</f>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -509,10 +566,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:H32"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -520,37 +577,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -568,104 +630,104 @@
         <v>3.331</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -683,15 +745,15 @@
         <v>3.243</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2</v>
@@ -709,15 +771,15 @@
         <v>2.88</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>
@@ -735,43 +797,43 @@
         <v>3.128</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -789,15 +851,15 @@
         <v>3.244</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2</v>
@@ -815,76 +877,76 @@
         <v>3.231</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -902,10 +964,15 @@
         <v>2.951</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -924,10 +991,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:H48"/>
+  <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -935,37 +1002,42 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -983,15 +1055,15 @@
         <v>5.207</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
@@ -1009,15 +1081,15 @@
         <v>2.915</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -1035,43 +1107,43 @@
         <v>3.331</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -1089,43 +1161,43 @@
         <v>3.444</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
@@ -1143,43 +1215,43 @@
         <v>2.646</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -1197,15 +1269,15 @@
         <v>4.951</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2</v>
@@ -1223,15 +1295,15 @@
         <v>4.667</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>3</v>
@@ -1249,15 +1321,15 @@
         <v>3.112</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>4</v>
@@ -1275,15 +1347,15 @@
         <v>3.274</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5</v>
@@ -1301,15 +1373,15 @@
         <v>2.811</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6</v>
@@ -1327,15 +1399,15 @@
         <v>2.957</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>7</v>
@@ -1353,15 +1425,15 @@
         <v>3.243</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>8</v>
@@ -1379,15 +1451,15 @@
         <v>2.88</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>9</v>
@@ -1405,43 +1477,43 @@
         <v>3.128</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -1459,15 +1531,15 @@
         <v>5.099</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2</v>
@@ -1485,15 +1557,15 @@
         <v>3.384</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3</v>
@@ -1511,15 +1583,15 @@
         <v>3.166</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>4</v>
@@ -1537,15 +1609,15 @@
         <v>2.87</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>5</v>
@@ -1563,15 +1635,15 @@
         <v>3.244</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>6</v>
@@ -1589,71 +1661,71 @@
         <v>3.231</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -1671,15 +1743,15 @@
         <v>5.305</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
@@ -1697,15 +1769,15 @@
         <v>3.451</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>3</v>
@@ -1723,15 +1795,15 @@
         <v>3.278</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>4</v>
@@ -1749,15 +1821,15 @@
         <v>3.049</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>5</v>
@@ -1775,10 +1847,15 @@
         <v>2.951</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1797,10 +1874,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:B34"/>
+  <dimension ref="A2:B44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M25" activeCellId="0" sqref="M25"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1808,97 +1885,158 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B23" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TableS2.xlsx
+++ b/TableS2.xlsx
@@ -2276,7 +2276,7 @@
   <dimension ref="B3:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2434,9 +2434,8 @@
       <c r="E8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="e">
-        <f aca="false">ROUND(C8/(C8+D8),2)</f>
-        <v>#DIV/0!</v>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">ROUND(C8/(C8+E8),2)</f>
@@ -2460,9 +2459,8 @@
       <c r="E9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="e">
-        <f aca="false">ROUND(C9/(C9+D9),2)</f>
-        <v>#DIV/0!</v>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">ROUND(C9/(C9+E9),2)</f>
@@ -2486,9 +2484,8 @@
       <c r="E10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="e">
-        <f aca="false">ROUND(C10/(C10+D10),2)</f>
-        <v>#DIV/0!</v>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">ROUND(C10/(C10+E10),2)</f>
@@ -2512,9 +2509,8 @@
       <c r="E11" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="F11" s="10" t="e">
-        <f aca="false">ROUND(C11/(C11+D11),2)</f>
-        <v>#DIV/0!</v>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="G11" s="10" t="n">
         <f aca="false">ROUND(C11/(C11+E11),2)</f>
@@ -2622,7 +2618,7 @@
   <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3046,7 +3042,7 @@
   </sheetPr>
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3929,8 +3925,8 @@
   </sheetPr>
   <dimension ref="A2:B44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D50" activeCellId="0" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
